--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2394086.653807</v>
+        <v>-2396700.932423451</v>
       </c>
     </row>
     <row r="7">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>411.2146126744141</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>297.6072935907341</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>115.8619247783174</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>9.588503314050378</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.0186029205788</v>
       </c>
       <c r="V2" t="n">
-        <v>104.2459956392757</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>91.1103483761872</v>
       </c>
       <c r="I3" t="n">
-        <v>14.08691327674312</v>
+        <v>14.08691327674309</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.1571872936354</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>100.3033462869334</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>94.83943180792923</v>
+        <v>94.8394318079292</v>
       </c>
       <c r="S4" t="n">
-        <v>192.0586035981867</v>
+        <v>192.0586035981866</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.1102960603998</v>
       </c>
       <c r="U4" t="n">
         <v>286.2190043347733</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>147.4202454784372</v>
       </c>
       <c r="W4" t="n">
-        <v>195.089568073192</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>108.5748211465607</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -947,19 +947,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>143.2334882807309</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,10 +1054,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>17.1304280159318</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.8885499332614</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>255.438417953038</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>146.8060263681277</v>
       </c>
     </row>
     <row r="9">
@@ -1294,16 +1294,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>11.7671037116294</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>7.59764077576868</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>61.44013021077249</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016393</v>
+        <v>42.53134576113683</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766857</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>71.39698738222822</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>123.9815576456782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>222.8161206669562</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428301</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012171</v>
+        <v>66.3752467101216</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>194.9706438327675</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>103.8784673763397</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012167</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>168.8664936943855</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652659</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2773,7 +2773,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545297</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881266</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352485</v>
@@ -3718,16 +3718,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1629.777807337106</v>
+        <v>1144.313896152345</v>
       </c>
       <c r="C2" t="n">
-        <v>1629.777807337106</v>
+        <v>775.3513792119331</v>
       </c>
       <c r="D2" t="n">
-        <v>1271.512108730356</v>
+        <v>775.3513792119331</v>
       </c>
       <c r="E2" t="n">
-        <v>885.7238561321121</v>
+        <v>775.3513792119334</v>
       </c>
       <c r="F2" t="n">
-        <v>474.7379513425045</v>
+        <v>775.3513792119334</v>
       </c>
       <c r="G2" t="n">
-        <v>59.36965571178312</v>
+        <v>359.9830835812115</v>
       </c>
       <c r="H2" t="n">
-        <v>59.36965571178312</v>
+        <v>59.36965571178315</v>
       </c>
       <c r="I2" t="n">
-        <v>59.36965571178312</v>
+        <v>59.36965571178315</v>
       </c>
       <c r="J2" t="n">
         <v>223.6389510734989</v>
       </c>
       <c r="K2" t="n">
-        <v>520.574560644744</v>
+        <v>520.5745606447435</v>
       </c>
       <c r="L2" t="n">
-        <v>925.851203018502</v>
+        <v>925.8512030185025</v>
       </c>
       <c r="M2" t="n">
         <v>1408.468993552357</v>
       </c>
       <c r="N2" t="n">
-        <v>1903.509852877247</v>
+        <v>1903.509852877248</v>
       </c>
       <c r="O2" t="n">
-        <v>2357.627637384224</v>
+        <v>2357.627637384225</v>
       </c>
       <c r="P2" t="n">
-        <v>2710.705659215709</v>
+        <v>2710.70565921571</v>
       </c>
       <c r="Q2" t="n">
-        <v>2927.67980271947</v>
+        <v>2927.679802719472</v>
       </c>
       <c r="R2" t="n">
-        <v>2968.482785589156</v>
+        <v>2968.482785589157</v>
       </c>
       <c r="S2" t="n">
-        <v>2851.45053833833</v>
+        <v>2851.450538338332</v>
       </c>
       <c r="T2" t="n">
-        <v>2851.45053833833</v>
+        <v>2841.765181455452</v>
       </c>
       <c r="U2" t="n">
-        <v>2851.45053833833</v>
+        <v>2588.211037091231</v>
       </c>
       <c r="V2" t="n">
-        <v>2746.151552844112</v>
+        <v>2257.148149747661</v>
       </c>
       <c r="W2" t="n">
-        <v>2393.382897573998</v>
+        <v>1904.379494477547</v>
       </c>
       <c r="X2" t="n">
-        <v>2019.917139312918</v>
+        <v>1530.913736216467</v>
       </c>
       <c r="Y2" t="n">
-        <v>1629.777807337106</v>
+        <v>1530.913736216467</v>
       </c>
     </row>
     <row r="3">
@@ -4404,31 +4404,31 @@
         <v>73.59886104182667</v>
       </c>
       <c r="I3" t="n">
-        <v>59.36965571178312</v>
+        <v>59.36965571178315</v>
       </c>
       <c r="J3" t="n">
-        <v>138.389475714895</v>
+        <v>263.2196007018999</v>
       </c>
       <c r="K3" t="n">
-        <v>351.6017589168898</v>
+        <v>476.4318839038949</v>
       </c>
       <c r="L3" t="n">
-        <v>684.6145268671321</v>
+        <v>809.4446518541373</v>
       </c>
       <c r="M3" t="n">
-        <v>1332.329405070862</v>
+        <v>1217.411713026818</v>
       </c>
       <c r="N3" t="n">
-        <v>1765.502785324654</v>
+        <v>1730.210181722258</v>
       </c>
       <c r="O3" t="n">
-        <v>2139.552005769183</v>
+        <v>2104.259402166788</v>
       </c>
       <c r="P3" t="n">
-        <v>2420.426415694429</v>
+        <v>2385.133812092034</v>
       </c>
       <c r="Q3" t="n">
-        <v>2558.264324026496</v>
+        <v>2522.971720424101</v>
       </c>
       <c r="R3" t="n">
         <v>2558.264324026496</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>605.6058476053652</v>
+        <v>841.0610618531731</v>
       </c>
       <c r="C4" t="n">
-        <v>605.6058476053652</v>
+        <v>672.1248789252662</v>
       </c>
       <c r="D4" t="n">
-        <v>455.4892081930294</v>
+        <v>522.0082395129305</v>
       </c>
       <c r="E4" t="n">
-        <v>307.5761146106363</v>
+        <v>374.0951459305373</v>
       </c>
       <c r="F4" t="n">
-        <v>160.6861671127259</v>
+        <v>227.205198432627</v>
       </c>
       <c r="G4" t="n">
-        <v>160.6861671127259</v>
+        <v>59.36965571178315</v>
       </c>
       <c r="H4" t="n">
-        <v>160.6861671127259</v>
+        <v>59.36965571178315</v>
       </c>
       <c r="I4" t="n">
-        <v>59.36965571178312</v>
+        <v>59.36965571178315</v>
       </c>
       <c r="J4" t="n">
-        <v>95.29667538945955</v>
+        <v>95.29667538946001</v>
       </c>
       <c r="K4" t="n">
-        <v>284.1726417778204</v>
+        <v>284.1726417778214</v>
       </c>
       <c r="L4" t="n">
-        <v>581.3952856386272</v>
+        <v>581.3952856386281</v>
       </c>
       <c r="M4" t="n">
-        <v>905.1640129945952</v>
+        <v>905.1640129945961</v>
       </c>
       <c r="N4" t="n">
-        <v>1226.668860094579</v>
+        <v>1226.66886009458</v>
       </c>
       <c r="O4" t="n">
-        <v>1507.614327944343</v>
+        <v>1507.614327944344</v>
       </c>
       <c r="P4" t="n">
-        <v>1724.49102829028</v>
+        <v>1724.491028290281</v>
       </c>
       <c r="Q4" t="n">
-        <v>1791.210133852896</v>
+        <v>1791.210133852897</v>
       </c>
       <c r="R4" t="n">
         <v>1695.412727986301</v>
       </c>
       <c r="S4" t="n">
-        <v>1501.414138493183</v>
+        <v>1501.414138493184</v>
       </c>
       <c r="T4" t="n">
-        <v>1501.414138493183</v>
+        <v>1279.080506108941</v>
       </c>
       <c r="U4" t="n">
-        <v>1212.304033104523</v>
+        <v>989.9704007202814</v>
       </c>
       <c r="V4" t="n">
-        <v>1212.304033104523</v>
+        <v>841.0610618531731</v>
       </c>
       <c r="W4" t="n">
-        <v>1015.243863333622</v>
+        <v>841.0610618531731</v>
       </c>
       <c r="X4" t="n">
-        <v>787.2543124356049</v>
+        <v>841.0610618531731</v>
       </c>
       <c r="Y4" t="n">
-        <v>787.2543124356049</v>
+        <v>841.0610618531731</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1681.836054204827</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
         <v>1572.164517693149</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180638</v>
+        <v>2717.866206673495</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204827</v>
+        <v>2327.726874697683</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>456.9449278938906</v>
+        <v>814.7868627196275</v>
       </c>
       <c r="C7" t="n">
-        <v>456.9449278938906</v>
+        <v>645.8506797917206</v>
       </c>
       <c r="D7" t="n">
-        <v>456.9449278938906</v>
+        <v>495.7340403793849</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>495.7340403793849</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959802</v>
+        <v>348.8440928814745</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>181.1412562561934</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1666.869595963939</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1445.102980533465</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1156.000113659108</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V7" t="n">
-        <v>1156.000113659108</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W7" t="n">
-        <v>866.5829436221477</v>
+        <v>1224.424878447885</v>
       </c>
       <c r="X7" t="n">
-        <v>638.5933927241304</v>
+        <v>996.4353275498672</v>
       </c>
       <c r="Y7" t="n">
-        <v>638.5933927241304</v>
+        <v>996.4353275498672</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2175.400891308157</v>
+        <v>1537.086630593157</v>
       </c>
       <c r="C8" t="n">
-        <v>1806.438374367745</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D8" t="n">
-        <v>1448.172675760995</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.605821609171</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2952.140063348091</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.000731372279</v>
+        <v>1923.686470657279</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>773.7942044041906</v>
+        <v>943.7005868594143</v>
       </c>
       <c r="C10" t="n">
-        <v>604.8580214762837</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4957,7 +4957,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1915.408584743413</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1915.408584743413</v>
+        <v>1829.789706224032</v>
       </c>
       <c r="T10" t="n">
-        <v>1693.641969312938</v>
+        <v>1608.023090793558</v>
       </c>
       <c r="U10" t="n">
-        <v>1693.641969312938</v>
+        <v>1608.023090793558</v>
       </c>
       <c r="V10" t="n">
-        <v>1693.641969312938</v>
+        <v>1353.338602587671</v>
       </c>
       <c r="W10" t="n">
-        <v>1404.224799275978</v>
+        <v>1353.338602587671</v>
       </c>
       <c r="X10" t="n">
-        <v>1176.23524837796</v>
+        <v>1125.349051689654</v>
       </c>
       <c r="Y10" t="n">
-        <v>955.4426692344304</v>
+        <v>1125.349051689654</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5051,7 +5051,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5060,31 +5060,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2223.769289033212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703163</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424094</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487573</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510514</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854711</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648824</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611864</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138464</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703163</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5267,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5358,19 +5358,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>251.5626541092265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,52 +5410,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1022.872235754091</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C16" t="n">
-        <v>853.9360528261841</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>703.8194134138483</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1653.302830625878</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1425.313279727861</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1204.520700584331</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="17">
@@ -5513,28 +5513,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5598,22 +5598,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400716</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C19" t="n">
-        <v>388.6197041282754</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5671,7 +5671,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
         <v>435.7419440038341</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138414</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703113</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="20">
@@ -5744,28 +5744,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>228.9331431646415</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>562.8579153358621</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511908</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>177.7213185270456</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782961</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038348</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179775</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993914</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956953</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1130.19898568143</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703117</v>
       </c>
     </row>
     <row r="23">
@@ -5969,40 +5969,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400706</v>
+        <v>779.6143379232827</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400706</v>
+        <v>779.6143379232827</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400706</v>
+        <v>779.6143379232827</v>
       </c>
       <c r="E25" t="n">
-        <v>365.9405071576775</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>365.9405071576775</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>198.7444078725574</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6163,7 +6163,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1517.813638001791</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1228.39646796483</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138405</v>
+        <v>1000.406917066813</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703104</v>
+        <v>779.6143379232827</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6306,22 +6306,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,58 +6358,58 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319325</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150024</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345484</v>
       </c>
       <c r="H28" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384028</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N28" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R28" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
@@ -6443,7 +6443,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6555,10 +6555,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
         <v>533.5814564942656</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6646,7 +6646,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6780,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6838,16 +6838,16 @@
         <v>782.5512955656819</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6862,7 +6862,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,13 +6883,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.58852738579</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2231.58852738579</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>2726.914133601549</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3324.2926212281</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3951.890584782707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4503.800315021994</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4503.800315021994</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7108,37 +7108,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7160,25 +7160,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7193,28 +7193,28 @@
         <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637304</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7312,7 +7312,7 @@
         <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
         <v>533.5814564942655</v>
@@ -7321,22 +7321,22 @@
         <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,7 +7351,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7360,7 +7360,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,25 +7397,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7424,10 +7424,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852254</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7585,7 +7585,7 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717214</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,7 +7825,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931273</v>
@@ -7834,7 +7834,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838285</v>
@@ -7843,13 +7843,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,10 +8064,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>242.1695121525751</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>80.42938226429112</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.872575263447203</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>297.6072935907341</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52.8684566485127</v>
+        <v>52.86845664851265</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,13 +22598,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>205.2000830738755</v>
+        <v>195.6115797598252</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0186029205788</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>223.5062628308592</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22717,13 +22717,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.1571872936354</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>145.9230939674644</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>100.3033462869334</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22756,19 +22756,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.1102960603998</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>104.7173978453908</v>
       </c>
       <c r="W4" t="n">
-        <v>91.43343026339903</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>87.17534280743988</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>75.03697526434095</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>43.26526345294965</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>63.36835372228795</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194079</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856546</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>30.73901155626967</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>36.41624546988425</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>83.27114962944252</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-7.958078640513122e-13</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1121427.816881861</v>
+        <v>1121427.816881862</v>
       </c>
     </row>
     <row r="3">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32460.91116143662</v>
+        <v>32460.9111614366</v>
       </c>
       <c r="C2" t="n">
+        <v>41052.08849321417</v>
+      </c>
+      <c r="D2" t="n">
         <v>41052.08849321416</v>
       </c>
-      <c r="D2" t="n">
-        <v>41052.08849321417</v>
-      </c>
       <c r="E2" t="n">
+        <v>40357.32998450031</v>
+      </c>
+      <c r="F2" t="n">
         <v>40357.32998450032</v>
       </c>
-      <c r="F2" t="n">
-        <v>40357.32998450031</v>
-      </c>
       <c r="G2" t="n">
+        <v>40357.32998450029</v>
+      </c>
+      <c r="H2" t="n">
         <v>40357.32998450032</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>40357.32998450028</v>
-      </c>
-      <c r="I2" t="n">
-        <v>40357.3299845003</v>
       </c>
       <c r="J2" t="n">
         <v>41052.08849321419</v>
@@ -26341,19 +26341,19 @@
         <v>41052.08849321417</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.08849321421</v>
+        <v>41052.08849321415</v>
       </c>
       <c r="M2" t="n">
+        <v>41052.08849321416</v>
+      </c>
+      <c r="N2" t="n">
         <v>41052.08849321419</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>41052.0884932142</v>
       </c>
-      <c r="O2" t="n">
-        <v>41052.08849321417</v>
-      </c>
       <c r="P2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.0884932142</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1228620.061871473</v>
       </c>
       <c r="C3" t="n">
-        <v>95186.49343973125</v>
+        <v>95186.49343973094</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213599.145481804</v>
+        <v>213599.1454818042</v>
       </c>
       <c r="K3" t="n">
         <v>22978.01038359976</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363173</v>
+        <v>19427.71799363194</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18331.20513627366</v>
+        <v>18331.20513627363</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818177</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683047</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
         <v>12996.86414683044</v>
@@ -26436,25 +26436,25 @@
         <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
+        <v>20987.72340992391</v>
+      </c>
+      <c r="K4" t="n">
+        <v>20987.72340992391</v>
+      </c>
+      <c r="L4" t="n">
+        <v>20987.72340992391</v>
+      </c>
+      <c r="M4" t="n">
         <v>20987.7234099239</v>
       </c>
-      <c r="K4" t="n">
-        <v>20987.7234099239</v>
-      </c>
-      <c r="L4" t="n">
-        <v>20987.7234099239</v>
-      </c>
-      <c r="M4" t="n">
-        <v>20987.72340992395</v>
-      </c>
       <c r="N4" t="n">
+        <v>20987.723409924</v>
+      </c>
+      <c r="O4" t="n">
         <v>20987.72340992392</v>
-      </c>
-      <c r="O4" t="n">
-        <v>20987.72340992396</v>
       </c>
       <c r="P4" t="n">
         <v>20987.72340992391</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1315407.773167285</v>
+        <v>-1315837.332033874</v>
       </c>
       <c r="C6" t="n">
-        <v>-254252.2444260921</v>
+        <v>-254252.2444260918</v>
       </c>
       <c r="D6" t="n">
-        <v>-159065.7509863608</v>
+        <v>-159065.7509863609</v>
       </c>
       <c r="E6" t="n">
-        <v>-399174.5257935927</v>
+        <v>-399209.263719028</v>
       </c>
       <c r="F6" t="n">
-        <v>-73762.06398623723</v>
+        <v>-73796.80191167293</v>
       </c>
       <c r="G6" t="n">
-        <v>-73762.06398623723</v>
+        <v>-73796.80191167296</v>
       </c>
       <c r="H6" t="n">
-        <v>-73762.06398623723</v>
+        <v>-73796.80191167298</v>
       </c>
       <c r="I6" t="n">
-        <v>-73762.06398623728</v>
+        <v>-73796.80191167291</v>
       </c>
       <c r="J6" t="n">
-        <v>-296698.8962524291</v>
+        <v>-296698.8962524293</v>
       </c>
       <c r="K6" t="n">
         <v>-106077.7611542249</v>
       </c>
       <c r="L6" t="n">
-        <v>-83099.75077062509</v>
+        <v>-83099.75077062516</v>
       </c>
       <c r="M6" t="n">
-        <v>-168154.778706137</v>
+        <v>-168154.7787061369</v>
       </c>
       <c r="N6" t="n">
-        <v>-83099.75077062512</v>
+        <v>-83099.75077062508</v>
       </c>
       <c r="O6" t="n">
-        <v>-102527.4687642569</v>
+        <v>-102527.4687642571</v>
       </c>
       <c r="P6" t="n">
-        <v>-83099.75077062518</v>
+        <v>-83099.75077062506</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1016.921054129328</v>
+        <v>1016.921054129329</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.120696397289</v>
+        <v>742.1206963972893</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26923,13 +26923,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920398</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1016.921054129328</v>
+        <v>1016.921054129329</v>
       </c>
       <c r="C3" t="n">
-        <v>72.85564646397006</v>
+        <v>72.85564646396972</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.120696397289</v>
+        <v>742.1206963972893</v>
       </c>
       <c r="C4" t="n">
         <v>89.28075900500357</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972888</v>
+        <v>742.1206963972893</v>
       </c>
       <c r="K4" t="n">
         <v>89.28075900500357</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.120696397289</v>
+        <v>742.1206963972893</v>
       </c>
       <c r="K4" t="n">
         <v>89.28075900500357</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>256.6980706244469</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>226.4976123977382</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>127.624586898389</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>20.88047539818049</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>126.4919521192238</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>239.4319122879259</v>
       </c>
     </row>
     <row r="9">
@@ -28014,16 +28014,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>77.16504895841794</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>182.1713845556732</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-8.96958157324731e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>5.258016244624741e-12</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.088124840720915</v>
+        <v>4.088124840720916</v>
       </c>
       <c r="H2" t="n">
-        <v>41.86750852503307</v>
+        <v>41.86750852503309</v>
       </c>
       <c r="I2" t="n">
-        <v>157.6074329218932</v>
+        <v>157.6074329218933</v>
       </c>
       <c r="J2" t="n">
-        <v>346.9744857001371</v>
+        <v>346.9744857001372</v>
       </c>
       <c r="K2" t="n">
-        <v>520.0248102078534</v>
+        <v>520.0248102078536</v>
       </c>
       <c r="L2" t="n">
-        <v>645.1367608020663</v>
+        <v>645.1367608020665</v>
       </c>
       <c r="M2" t="n">
-        <v>717.8389509382367</v>
+        <v>717.8389509382371</v>
       </c>
       <c r="N2" t="n">
-        <v>729.4543356419351</v>
+        <v>729.4543356419354</v>
       </c>
       <c r="O2" t="n">
-        <v>688.8030442570165</v>
+        <v>688.8030442570167</v>
       </c>
       <c r="P2" t="n">
-        <v>587.8774622517188</v>
+        <v>587.8774622517191</v>
       </c>
       <c r="Q2" t="n">
-        <v>441.471491393401</v>
+        <v>441.4714913934011</v>
       </c>
       <c r="R2" t="n">
-        <v>256.8006720259354</v>
+        <v>256.8006720259355</v>
       </c>
       <c r="S2" t="n">
-        <v>93.15814480792793</v>
+        <v>93.15814480792797</v>
       </c>
       <c r="T2" t="n">
-        <v>17.89576649025581</v>
+        <v>17.89576649025582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3270499872576731</v>
+        <v>0.3270499872576732</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.187339625863083</v>
+        <v>2.187339625863084</v>
       </c>
       <c r="H3" t="n">
-        <v>21.12509586030925</v>
+        <v>21.12509586030926</v>
       </c>
       <c r="I3" t="n">
-        <v>75.30971957467196</v>
+        <v>75.30971957467199</v>
       </c>
       <c r="J3" t="n">
-        <v>206.65562666981</v>
+        <v>206.6556266698101</v>
       </c>
       <c r="K3" t="n">
-        <v>353.2073816026366</v>
+        <v>353.2073816026368</v>
       </c>
       <c r="L3" t="n">
-        <v>474.9309130629472</v>
+        <v>474.9309130629474</v>
       </c>
       <c r="M3" t="n">
-        <v>554.2219745004838</v>
+        <v>554.221974500484</v>
       </c>
       <c r="N3" t="n">
-        <v>568.890581026557</v>
+        <v>568.8905810265571</v>
       </c>
       <c r="O3" t="n">
-        <v>520.4237398429591</v>
+        <v>520.4237398429593</v>
       </c>
       <c r="P3" t="n">
-        <v>417.6859325913462</v>
+        <v>417.6859325913463</v>
       </c>
       <c r="Q3" t="n">
-        <v>279.2119845224526</v>
+        <v>279.2119845224527</v>
       </c>
       <c r="R3" t="n">
-        <v>135.8069287005167</v>
+        <v>135.8069287005168</v>
       </c>
       <c r="S3" t="n">
-        <v>40.62887419092172</v>
+        <v>40.62887419092174</v>
       </c>
       <c r="T3" t="n">
-        <v>8.816513667404267</v>
+        <v>8.816513667404271</v>
       </c>
       <c r="U3" t="n">
         <v>0.1439039227541503</v>
@@ -31200,10 +31200,10 @@
         <v>1.833792064823379</v>
       </c>
       <c r="H4" t="n">
-        <v>16.30407853997514</v>
+        <v>16.30407853997515</v>
       </c>
       <c r="I4" t="n">
-        <v>55.14712864032489</v>
+        <v>55.14712864032492</v>
       </c>
       <c r="J4" t="n">
         <v>129.6490989830129</v>
@@ -31212,31 +31212,31 @@
         <v>213.0532962585707</v>
       </c>
       <c r="L4" t="n">
-        <v>272.6348675283776</v>
+        <v>272.6348675283777</v>
       </c>
       <c r="M4" t="n">
         <v>287.4552415795411</v>
       </c>
       <c r="N4" t="n">
-        <v>280.6201984288359</v>
+        <v>280.620198428836</v>
       </c>
       <c r="O4" t="n">
-        <v>259.1981729443082</v>
+        <v>259.1981729443083</v>
       </c>
       <c r="P4" t="n">
-        <v>221.7888148219111</v>
+        <v>221.7888148219112</v>
       </c>
       <c r="Q4" t="n">
         <v>153.5550791735286</v>
       </c>
       <c r="R4" t="n">
-        <v>82.45395956924025</v>
+        <v>82.45395956924028</v>
       </c>
       <c r="S4" t="n">
-        <v>31.9579944387856</v>
+        <v>31.95799443878561</v>
       </c>
       <c r="T4" t="n">
-        <v>7.835293367881706</v>
+        <v>7.835293367881709</v>
       </c>
       <c r="U4" t="n">
         <v>0.100025021717639</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P12" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>146.0225991093084</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>265.5442652399242</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>261.5336801130329</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,7 +32792,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>477.8500485393217</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33026,16 +33026,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>614.7544723218309</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,7 +33044,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>154.5219885631796</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33439,7 +33439,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33500,7 +33500,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>271.1474903386692</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,40 +33731,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669242</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473071</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>681.5735157229398</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742437</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159444</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,37 +34445,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>181.9330708814852</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>165.9285811734508</v>
+        <v>165.9285811734509</v>
       </c>
       <c r="K2" t="n">
-        <v>299.9349591628729</v>
+        <v>299.9349591628731</v>
       </c>
       <c r="L2" t="n">
-        <v>409.3703458320791</v>
+        <v>409.3703458320793</v>
       </c>
       <c r="M2" t="n">
-        <v>487.492717710964</v>
+        <v>487.4927177109644</v>
       </c>
       <c r="N2" t="n">
-        <v>500.0412720453442</v>
+        <v>500.0412720453444</v>
       </c>
       <c r="O2" t="n">
-        <v>458.7048328353297</v>
+        <v>458.70483283533</v>
       </c>
       <c r="P2" t="n">
-        <v>356.6444664964493</v>
+        <v>356.6444664964495</v>
       </c>
       <c r="Q2" t="n">
-        <v>219.1658015189515</v>
+        <v>219.1658015189516</v>
       </c>
       <c r="R2" t="n">
-        <v>41.21513421180327</v>
+        <v>41.21513421180333</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79.81800000314334</v>
+        <v>205.9090353435522</v>
       </c>
       <c r="K3" t="n">
-        <v>215.3659426282776</v>
+        <v>215.3659426282778</v>
       </c>
       <c r="L3" t="n">
-        <v>336.376533283073</v>
+        <v>336.3765332830732</v>
       </c>
       <c r="M3" t="n">
-        <v>654.2574527310406</v>
+        <v>412.0879405784656</v>
       </c>
       <c r="N3" t="n">
-        <v>437.5488689432237</v>
+        <v>517.978251207515</v>
       </c>
       <c r="O3" t="n">
-        <v>377.8274953985147</v>
+        <v>377.8274953985149</v>
       </c>
       <c r="P3" t="n">
-        <v>283.711525177016</v>
+        <v>283.7115251770161</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.230210436431</v>
+        <v>139.2302104364312</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>35.64909454787367</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>36.28991886634009</v>
+        <v>36.28991886634012</v>
       </c>
       <c r="K4" t="n">
-        <v>190.7838044326878</v>
+        <v>190.7838044326879</v>
       </c>
       <c r="L4" t="n">
-        <v>300.2248927886938</v>
+        <v>300.2248927886939</v>
       </c>
       <c r="M4" t="n">
-        <v>327.0391185413816</v>
+        <v>327.0391185413817</v>
       </c>
       <c r="N4" t="n">
-        <v>324.7523708080645</v>
+        <v>324.7523708080646</v>
       </c>
       <c r="O4" t="n">
-        <v>283.7833008583478</v>
+        <v>283.783300858348</v>
       </c>
       <c r="P4" t="n">
         <v>219.0673740868046</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.39303592183417</v>
+        <v>67.39303592183423</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,7 +35492,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,16 +35501,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P12" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>8.181160134949373</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>134.202553156591</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>134.6960534463662</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,7 +36440,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>339.2956687594475</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36531,7 +36531,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36674,16 +36674,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>476.2000925419567</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,7 +36692,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,25 +36753,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37148,7 +37148,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>128.5512458942248</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37476,10 +37476,10 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
         <v>144.686904791938</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924747</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674329</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>550.2318036396065</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193534</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>44.09163190712619</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
